--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="2480" windowWidth="41240" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="600" yWindow="4540" windowWidth="41240" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -89,59 +89,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;B:0x100407960&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;D:0x1004085c0&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;C:0x100407f40&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;DSKeyValueObservance 0x100302ca0&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;DSKeyValueObservance 0x1003042f0&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;DSKeyValueObservance 0x100408c60&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;DSKeyValueObservance 0x1004096c0&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;DSKeyValueObservance 0x100302ca0&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;DSKeyValueObservance 0x100408c60&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ObserverA: 0x100404c20&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ObserverA: 0x100404c20&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;DSKeyValueUnnestedProperty:Container class:D, key:char_field, isa for autonotifying:not cached yet,key paths of directly and indirectly affecting properties:none&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;DSKeyValueNestedProperty: Container class: C, Relationship property: &lt;DSKeyValueUnnestedProperty:Container class:C, key:D_field, isa for autonotifying:not cached yet,key paths of directly and indirectly affecting properties:none&gt;, Key path from related object: char_field&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;B:0x100407960&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;D:0x1004085c0&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_field</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;DSKeyValueUnnestedProperty:Container class:D, key:char_field, isa for autonotifying:not cached yet,key paths of directly and indirectly affecting properties:none&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;C:0x100407f40&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;DSKeyValueObservance 0x100302ca0&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;DSKeyValueObservance 0x1003042f0&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;DSKeyValueObservance 0x100408c60&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;DSKeyValueObservance 0x1004096c0&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;DSKeyValueObservance 0x100302ca0&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;DSKeyValueObservance 0x100408c60&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;ObserverA: 0x100404c20&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;ObserverA: 0x100404c20&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -667,7 +667,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C13"/>
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -701,19 +701,19 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="92" customHeight="1">
@@ -745,19 +745,19 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="79" customHeight="1">
@@ -789,19 +789,19 @@
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="82" customHeight="1">
@@ -813,7 +813,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -825,27 +825,27 @@
         <v>4</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="101" customHeight="1">
@@ -857,7 +857,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -869,7 +869,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
